--- a/fastapi-ml/data/TotalData3.xlsx
+++ b/fastapi-ml/data/TotalData3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01-STUDY\SHJ\GasMonitoringDashboard\fastapi-ml\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01-STUDY\GasMonitoringDashboard\fastapi-ml\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67830044-8D23-4112-9CF6-55A3AB9A653D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7051538C-93B2-4932-9480-F6B70E704793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,9 +78,6 @@
     <t>서울특별시</t>
   </si>
   <si>
-    <t>세종특별 자치시</t>
-  </si>
-  <si>
     <t>울산광역시</t>
   </si>
   <si>
@@ -103,6 +100,10 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>세종특별자치시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -192,7 +193,7 @@
   <autoFilter ref="A1:F1072" xr:uid="{8EB5E5A8-01A6-4310-AAE3-09A9CA22E708}">
     <filterColumn colId="1">
       <filters>
-        <filter val="전국"/>
+        <filter val="세종특별 자치시"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -532,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B200B4-8CA7-4BE9-87CE-9F22C09F6A82}">
   <dimension ref="A1:F1072"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1085" sqref="B1085"/>
+    <sheetView tabSelected="1" topLeftCell="A600" workbookViewId="0">
+      <selection activeCell="J612" sqref="J612"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -548,7 +549,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -11906,12 +11907,12 @@
         <v>472796</v>
       </c>
     </row>
-    <row r="569" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A569" s="1">
         <v>43831</v>
       </c>
       <c r="B569" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C569">
         <v>2.1</v>
@@ -11926,12 +11927,12 @@
         <v>10640</v>
       </c>
     </row>
-    <row r="570" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A570" s="1">
         <v>43862</v>
       </c>
       <c r="B570" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C570">
         <v>2.9</v>
@@ -11946,12 +11947,12 @@
         <v>10263</v>
       </c>
     </row>
-    <row r="571" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A571" s="1">
         <v>43891</v>
       </c>
       <c r="B571" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C571">
         <v>7.8</v>
@@ -11966,12 +11967,12 @@
         <v>9913</v>
       </c>
     </row>
-    <row r="572" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A572" s="1">
         <v>43922</v>
       </c>
       <c r="B572" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C572">
         <v>10.8</v>
@@ -11986,12 +11987,12 @@
         <v>7749</v>
       </c>
     </row>
-    <row r="573" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A573" s="1">
         <v>43952</v>
       </c>
       <c r="B573" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C573">
         <v>18.2</v>
@@ -12006,12 +12007,12 @@
         <v>6909</v>
       </c>
     </row>
-    <row r="574" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A574" s="1">
         <v>43983</v>
       </c>
       <c r="B574" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C574">
         <v>23.2</v>
@@ -12026,12 +12027,12 @@
         <v>6423</v>
       </c>
     </row>
-    <row r="575" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A575" s="1">
         <v>44013</v>
       </c>
       <c r="B575" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C575">
         <v>23.2</v>
@@ -12046,12 +12047,12 @@
         <v>6479</v>
       </c>
     </row>
-    <row r="576" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A576" s="1">
         <v>44044</v>
       </c>
       <c r="B576" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C576">
         <v>26.8</v>
@@ -12066,12 +12067,12 @@
         <v>5599</v>
       </c>
     </row>
-    <row r="577" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A577" s="1">
         <v>44075</v>
       </c>
       <c r="B577" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C577">
         <v>20.5</v>
@@ -12086,12 +12087,12 @@
         <v>6069</v>
       </c>
     </row>
-    <row r="578" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A578" s="1">
         <v>44105</v>
       </c>
       <c r="B578" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C578">
         <v>13.4</v>
@@ -12106,12 +12107,12 @@
         <v>10268</v>
       </c>
     </row>
-    <row r="579" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A579" s="1">
         <v>44136</v>
       </c>
       <c r="B579" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C579">
         <v>8</v>
@@ -12126,12 +12127,12 @@
         <v>12087</v>
       </c>
     </row>
-    <row r="580" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A580" s="1">
         <v>44166</v>
       </c>
       <c r="B580" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C580">
         <v>-0.1</v>
@@ -12146,12 +12147,12 @@
         <v>11876</v>
       </c>
     </row>
-    <row r="581" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A581" s="1">
         <v>44197</v>
       </c>
       <c r="B581" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C581">
         <v>-1.7</v>
@@ -12166,12 +12167,12 @@
         <v>12823</v>
       </c>
     </row>
-    <row r="582" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A582" s="1">
         <v>44228</v>
       </c>
       <c r="B582" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C582">
         <v>3.2</v>
@@ -12186,12 +12187,12 @@
         <v>11233</v>
       </c>
     </row>
-    <row r="583" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A583" s="1">
         <v>44256</v>
       </c>
       <c r="B583" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C583">
         <v>8.8000000000000007</v>
@@ -12206,12 +12207,12 @@
         <v>10882</v>
       </c>
     </row>
-    <row r="584" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A584" s="1">
         <v>44287</v>
       </c>
       <c r="B584" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C584">
         <v>13.9</v>
@@ -12226,12 +12227,12 @@
         <v>9126</v>
       </c>
     </row>
-    <row r="585" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A585" s="1">
         <v>44317</v>
       </c>
       <c r="B585" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C585">
         <v>16.8</v>
@@ -12246,12 +12247,12 @@
         <v>7347</v>
       </c>
     </row>
-    <row r="586" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A586" s="1">
         <v>44348</v>
       </c>
       <c r="B586" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C586">
         <v>22.6</v>
@@ -12266,12 +12267,12 @@
         <v>6542</v>
       </c>
     </row>
-    <row r="587" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A587" s="1">
         <v>44378</v>
       </c>
       <c r="B587" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C587">
         <v>26.9</v>
@@ -12286,12 +12287,12 @@
         <v>6362</v>
       </c>
     </row>
-    <row r="588" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A588" s="1">
         <v>44409</v>
       </c>
       <c r="B588" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C588">
         <v>25.1</v>
@@ -12306,12 +12307,12 @@
         <v>5664</v>
       </c>
     </row>
-    <row r="589" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A589" s="1">
         <v>44440</v>
       </c>
       <c r="B589" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C589">
         <v>21.8</v>
@@ -12326,12 +12327,12 @@
         <v>5571</v>
       </c>
     </row>
-    <row r="590" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A590" s="1">
         <v>44470</v>
       </c>
       <c r="B590" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C590">
         <v>15</v>
@@ -12346,12 +12347,12 @@
         <v>7206</v>
       </c>
     </row>
-    <row r="591" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A591" s="1">
         <v>44501</v>
       </c>
       <c r="B591" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C591">
         <v>8.1999999999999993</v>
@@ -12366,12 +12367,12 @@
         <v>9492</v>
       </c>
     </row>
-    <row r="592" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A592" s="1">
         <v>44531</v>
       </c>
       <c r="B592" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C592">
         <v>1.2</v>
@@ -12386,12 +12387,12 @@
         <v>11351</v>
       </c>
     </row>
-    <row r="593" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A593" s="1">
         <v>44562</v>
       </c>
       <c r="B593" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C593">
         <v>-1.4</v>
@@ -12406,12 +12407,12 @@
         <v>11904</v>
       </c>
     </row>
-    <row r="594" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A594" s="1">
         <v>44593</v>
       </c>
       <c r="B594" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C594">
         <v>-0.4</v>
@@ -12426,12 +12427,12 @@
         <v>11264</v>
       </c>
     </row>
-    <row r="595" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A595" s="1">
         <v>44621</v>
       </c>
       <c r="B595" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C595">
         <v>7.7</v>
@@ -12446,12 +12447,12 @@
         <v>9963</v>
       </c>
     </row>
-    <row r="596" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A596" s="1">
         <v>44652</v>
       </c>
       <c r="B596" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C596">
         <v>14.2</v>
@@ -12466,12 +12467,12 @@
         <v>7968</v>
       </c>
     </row>
-    <row r="597" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A597" s="1">
         <v>44682</v>
       </c>
       <c r="B597" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C597">
         <v>18.399999999999999</v>
@@ -12486,12 +12487,12 @@
         <v>7458</v>
       </c>
     </row>
-    <row r="598" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A598" s="1">
         <v>44713</v>
       </c>
       <c r="B598" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C598">
         <v>23.3</v>
@@ -12506,12 +12507,12 @@
         <v>6290</v>
       </c>
     </row>
-    <row r="599" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A599" s="1">
         <v>44743</v>
       </c>
       <c r="B599" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C599">
         <v>26.4</v>
@@ -12526,12 +12527,12 @@
         <v>6252</v>
       </c>
     </row>
-    <row r="600" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A600" s="1">
         <v>44774</v>
       </c>
       <c r="B600" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C600">
         <v>25.3</v>
@@ -12546,12 +12547,12 @@
         <v>6731</v>
       </c>
     </row>
-    <row r="601" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A601" s="1">
         <v>44805</v>
       </c>
       <c r="B601" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C601">
         <v>21.8</v>
@@ -12566,12 +12567,12 @@
         <v>9710</v>
       </c>
     </row>
-    <row r="602" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A602" s="1">
         <v>44835</v>
       </c>
       <c r="B602" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C602">
         <v>13.9</v>
@@ -12586,12 +12587,12 @@
         <v>11131</v>
       </c>
     </row>
-    <row r="603" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A603" s="1">
         <v>44866</v>
       </c>
       <c r="B603" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C603">
         <v>9.4</v>
@@ -12606,12 +12607,12 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="604" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A604" s="1">
         <v>44896</v>
       </c>
       <c r="B604" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C604">
         <v>-2.4</v>
@@ -12626,12 +12627,12 @@
         <v>12222</v>
       </c>
     </row>
-    <row r="605" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A605" s="1">
         <v>44927</v>
       </c>
       <c r="B605" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C605">
         <v>-1.2</v>
@@ -12646,12 +12647,12 @@
         <v>12959</v>
       </c>
     </row>
-    <row r="606" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A606" s="1">
         <v>44958</v>
       </c>
       <c r="B606" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C606">
         <v>2</v>
@@ -12666,12 +12667,12 @@
         <v>11055</v>
       </c>
     </row>
-    <row r="607" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A607" s="1">
         <v>44986</v>
       </c>
       <c r="B607" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C607">
         <v>9.6</v>
@@ -12686,12 +12687,12 @@
         <v>9101</v>
       </c>
     </row>
-    <row r="608" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A608" s="1">
         <v>45017</v>
       </c>
       <c r="B608" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C608">
         <v>13.3</v>
@@ -12706,12 +12707,12 @@
         <v>8063</v>
       </c>
     </row>
-    <row r="609" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A609" s="1">
         <v>45047</v>
       </c>
       <c r="B609" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C609">
         <v>18.5</v>
@@ -12726,12 +12727,12 @@
         <v>6980</v>
       </c>
     </row>
-    <row r="610" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A610" s="1">
         <v>45078</v>
       </c>
       <c r="B610" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C610">
         <v>23.1</v>
@@ -12746,12 +12747,12 @@
         <v>6638</v>
       </c>
     </row>
-    <row r="611" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A611" s="1">
         <v>45108</v>
       </c>
       <c r="B611" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C611">
         <v>25.6</v>
@@ -12766,12 +12767,12 @@
         <v>6268</v>
       </c>
     </row>
-    <row r="612" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A612" s="1">
         <v>45139</v>
       </c>
       <c r="B612" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C612">
         <v>26.7</v>
@@ -12786,12 +12787,12 @@
         <v>6689</v>
       </c>
     </row>
-    <row r="613" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A613" s="1">
         <v>45170</v>
       </c>
       <c r="B613" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C613">
         <v>22.7</v>
@@ -12806,12 +12807,12 @@
         <v>6180</v>
       </c>
     </row>
-    <row r="614" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A614" s="1">
         <v>45200</v>
       </c>
       <c r="B614" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C614">
         <v>14.8</v>
@@ -12826,12 +12827,12 @@
         <v>7275</v>
       </c>
     </row>
-    <row r="615" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A615" s="1">
         <v>45231</v>
       </c>
       <c r="B615" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C615">
         <v>7.6</v>
@@ -12846,12 +12847,12 @@
         <v>9405</v>
       </c>
     </row>
-    <row r="616" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A616" s="1">
         <v>45261</v>
       </c>
       <c r="B616" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C616">
         <v>2.2999999999999998</v>
@@ -12866,12 +12867,12 @@
         <v>11645</v>
       </c>
     </row>
-    <row r="617" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A617" s="1">
         <v>45292</v>
       </c>
       <c r="B617" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C617">
         <v>0.1</v>
@@ -12886,12 +12887,12 @@
         <v>12828</v>
       </c>
     </row>
-    <row r="618" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A618" s="1">
         <v>45323</v>
       </c>
       <c r="B618" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C618">
         <v>4</v>
@@ -12906,12 +12907,12 @@
         <v>10732</v>
       </c>
     </row>
-    <row r="619" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A619" s="1">
         <v>45352</v>
       </c>
       <c r="B619" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C619">
         <v>7</v>
@@ -12926,12 +12927,12 @@
         <v>10162</v>
       </c>
     </row>
-    <row r="620" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A620" s="1">
         <v>45383</v>
       </c>
       <c r="B620" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C620">
         <v>15.8</v>
@@ -12946,12 +12947,12 @@
         <v>7915</v>
       </c>
     </row>
-    <row r="621" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A621" s="1">
         <v>45413</v>
       </c>
       <c r="B621" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C621">
         <v>17.899999999999999</v>
@@ -12966,12 +12967,12 @@
         <v>10408</v>
       </c>
     </row>
-    <row r="622" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A622" s="1">
         <v>45444</v>
       </c>
       <c r="B622" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C622">
         <v>23.3</v>
@@ -12986,12 +12987,12 @@
         <v>9573</v>
       </c>
     </row>
-    <row r="623" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A623" s="1">
         <v>45474</v>
       </c>
       <c r="B623" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C623">
         <v>26.2</v>
@@ -13006,12 +13007,12 @@
         <v>6728</v>
       </c>
     </row>
-    <row r="624" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A624" s="1">
         <v>45505</v>
       </c>
       <c r="B624" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C624">
         <v>28.1</v>
@@ -13026,12 +13027,12 @@
         <v>6069</v>
       </c>
     </row>
-    <row r="625" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A625" s="1">
         <v>45536</v>
       </c>
       <c r="B625" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C625">
         <v>25.2</v>
@@ -13046,12 +13047,12 @@
         <v>6395</v>
       </c>
     </row>
-    <row r="626" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A626" s="1">
         <v>45566</v>
       </c>
       <c r="B626" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C626">
         <v>15.7</v>
@@ -13066,12 +13067,12 @@
         <v>6611</v>
       </c>
     </row>
-    <row r="627" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A627" s="1">
         <v>45597</v>
       </c>
       <c r="B627" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C627">
         <v>9.5</v>
@@ -13086,12 +13087,12 @@
         <v>7840</v>
       </c>
     </row>
-    <row r="628" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A628" s="1">
         <v>45627</v>
       </c>
       <c r="B628" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C628">
         <v>1.3</v>
@@ -13106,12 +13107,12 @@
         <v>11043</v>
       </c>
     </row>
-    <row r="629" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A629" s="1">
         <v>45658</v>
       </c>
       <c r="B629" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C629">
         <v>-0.3</v>
@@ -13126,12 +13127,12 @@
         <v>11649</v>
       </c>
     </row>
-    <row r="630" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A630" s="1">
         <v>45689</v>
       </c>
       <c r="B630" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C630">
         <v>-0.9</v>
@@ -13146,12 +13147,12 @@
         <v>12263</v>
       </c>
     </row>
-    <row r="631" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A631" s="1">
         <v>45717</v>
       </c>
       <c r="B631" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C631">
         <v>7.7</v>
@@ -13171,7 +13172,7 @@
         <v>43831</v>
       </c>
       <c r="B632" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C632">
         <v>5.2</v>
@@ -13191,7 +13192,7 @@
         <v>43862</v>
       </c>
       <c r="B633" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C633">
         <v>6</v>
@@ -13211,7 +13212,7 @@
         <v>43891</v>
       </c>
       <c r="B634" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C634">
         <v>9.6</v>
@@ -13231,7 +13232,7 @@
         <v>43922</v>
       </c>
       <c r="B635" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C635">
         <v>12.3</v>
@@ -13251,7 +13252,7 @@
         <v>43952</v>
       </c>
       <c r="B636" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C636">
         <v>18.100000000000001</v>
@@ -13271,7 +13272,7 @@
         <v>43983</v>
       </c>
       <c r="B637" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C637">
         <v>22.7</v>
@@ -13291,7 +13292,7 @@
         <v>44013</v>
       </c>
       <c r="B638" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C638">
         <v>22.1</v>
@@ -13311,7 +13312,7 @@
         <v>44044</v>
       </c>
       <c r="B639" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C639">
         <v>27.6</v>
@@ -13331,7 +13332,7 @@
         <v>44075</v>
       </c>
       <c r="B640" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C640">
         <v>21.1</v>
@@ -13351,7 +13352,7 @@
         <v>44105</v>
       </c>
       <c r="B641" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C641">
         <v>15.9</v>
@@ -13371,7 +13372,7 @@
         <v>44136</v>
       </c>
       <c r="B642" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C642">
         <v>11</v>
@@ -13391,7 +13392,7 @@
         <v>44166</v>
       </c>
       <c r="B643" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C643">
         <v>3.4</v>
@@ -13411,7 +13412,7 @@
         <v>44197</v>
       </c>
       <c r="B644" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C644">
         <v>2.1</v>
@@ -13431,7 +13432,7 @@
         <v>44228</v>
       </c>
       <c r="B645" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C645">
         <v>6.5</v>
@@ -13451,7 +13452,7 @@
         <v>44256</v>
       </c>
       <c r="B646" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C646">
         <v>10.5</v>
@@ -13471,7 +13472,7 @@
         <v>44287</v>
       </c>
       <c r="B647" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C647">
         <v>13.8</v>
@@ -13491,7 +13492,7 @@
         <v>44317</v>
       </c>
       <c r="B648" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C648">
         <v>17.8</v>
@@ -13511,7 +13512,7 @@
         <v>44348</v>
       </c>
       <c r="B649" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C649">
         <v>21.7</v>
@@ -13531,7 +13532,7 @@
         <v>44378</v>
       </c>
       <c r="B650" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C650">
         <v>25.9</v>
@@ -13551,7 +13552,7 @@
         <v>44409</v>
       </c>
       <c r="B651" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C651">
         <v>25.3</v>
@@ -13571,7 +13572,7 @@
         <v>44440</v>
       </c>
       <c r="B652" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C652">
         <v>22.1</v>
@@ -13591,7 +13592,7 @@
         <v>44470</v>
       </c>
       <c r="B653" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C653">
         <v>17.100000000000001</v>
@@ -13611,7 +13612,7 @@
         <v>44501</v>
       </c>
       <c r="B654" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C654">
         <v>11.1</v>
@@ -13631,7 +13632,7 @@
         <v>44531</v>
       </c>
       <c r="B655" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C655">
         <v>4.7</v>
@@ -13651,7 +13652,7 @@
         <v>44562</v>
       </c>
       <c r="B656" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C656">
         <v>2.6</v>
@@ -13671,7 +13672,7 @@
         <v>44593</v>
       </c>
       <c r="B657" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C657">
         <v>2.7</v>
@@ -13691,7 +13692,7 @@
         <v>44621</v>
       </c>
       <c r="B658" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C658">
         <v>9.9</v>
@@ -13711,7 +13712,7 @@
         <v>44652</v>
       </c>
       <c r="B659" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C659">
         <v>14.7</v>
@@ -13731,7 +13732,7 @@
         <v>44682</v>
       </c>
       <c r="B660" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C660">
         <v>19.2</v>
@@ -13751,7 +13752,7 @@
         <v>44713</v>
       </c>
       <c r="B661" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C661">
         <v>22.4</v>
@@ -13771,7 +13772,7 @@
         <v>44743</v>
       </c>
       <c r="B662" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C662">
         <v>26</v>
@@ -13791,7 +13792,7 @@
         <v>44774</v>
       </c>
       <c r="B663" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C663">
         <v>26.4</v>
@@ -13811,7 +13812,7 @@
         <v>44805</v>
       </c>
       <c r="B664" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C664">
         <v>21.7</v>
@@ -13831,7 +13832,7 @@
         <v>44835</v>
       </c>
       <c r="B665" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C665">
         <v>16</v>
@@ -13851,7 +13852,7 @@
         <v>44866</v>
       </c>
       <c r="B666" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C666">
         <v>12.7</v>
@@ -13871,7 +13872,7 @@
         <v>44896</v>
       </c>
       <c r="B667" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C667">
         <v>2</v>
@@ -13891,7 +13892,7 @@
         <v>44927</v>
       </c>
       <c r="B668" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C668">
         <v>2.6</v>
@@ -13911,7 +13912,7 @@
         <v>44958</v>
       </c>
       <c r="B669" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C669">
         <v>5.2</v>
@@ -13931,7 +13932,7 @@
         <v>44986</v>
       </c>
       <c r="B670" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C670">
         <v>11.4</v>
@@ -13951,7 +13952,7 @@
         <v>45017</v>
       </c>
       <c r="B671" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C671">
         <v>14.1</v>
@@ -13971,7 +13972,7 @@
         <v>45047</v>
       </c>
       <c r="B672" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C672">
         <v>17.8</v>
@@ -13991,7 +13992,7 @@
         <v>45078</v>
       </c>
       <c r="B673" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C673">
         <v>22.3</v>
@@ -14011,7 +14012,7 @@
         <v>45108</v>
       </c>
       <c r="B674" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C674">
         <v>25.8</v>
@@ -14031,7 +14032,7 @@
         <v>45139</v>
       </c>
       <c r="B675" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C675">
         <v>26.5</v>
@@ -14051,7 +14052,7 @@
         <v>45170</v>
       </c>
       <c r="B676" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C676">
         <v>22.9</v>
@@ -14071,7 +14072,7 @@
         <v>45200</v>
       </c>
       <c r="B677" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C677">
         <v>16.399999999999999</v>
@@ -14091,7 +14092,7 @@
         <v>45231</v>
       </c>
       <c r="B678" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C678">
         <v>10.4</v>
@@ -14111,7 +14112,7 @@
         <v>45261</v>
       </c>
       <c r="B679" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C679">
         <v>4.9000000000000004</v>
@@ -14131,7 +14132,7 @@
         <v>45292</v>
       </c>
       <c r="B680" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C680">
         <v>3.4</v>
@@ -14151,7 +14152,7 @@
         <v>45323</v>
       </c>
       <c r="B681" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C681">
         <v>6</v>
@@ -14171,7 +14172,7 @@
         <v>45352</v>
       </c>
       <c r="B682" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C682">
         <v>8.6</v>
@@ -14191,7 +14192,7 @@
         <v>45383</v>
       </c>
       <c r="B683" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C683">
         <v>14.9</v>
@@ -14211,7 +14212,7 @@
         <v>45413</v>
       </c>
       <c r="B684" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C684">
         <v>17.899999999999999</v>
@@ -14231,7 +14232,7 @@
         <v>45444</v>
       </c>
       <c r="B685" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C685">
         <v>22.6</v>
@@ -14251,7 +14252,7 @@
         <v>45474</v>
       </c>
       <c r="B686" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C686">
         <v>26.9</v>
@@ -14271,7 +14272,7 @@
         <v>45505</v>
       </c>
       <c r="B687" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C687">
         <v>28</v>
@@ -14291,7 +14292,7 @@
         <v>45536</v>
       </c>
       <c r="B688" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C688">
         <v>24.7</v>
@@ -14311,7 +14312,7 @@
         <v>45566</v>
       </c>
       <c r="B689" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C689">
         <v>17.8</v>
@@ -14331,7 +14332,7 @@
         <v>45597</v>
       </c>
       <c r="B690" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C690">
         <v>11.8</v>
@@ -14351,7 +14352,7 @@
         <v>45627</v>
       </c>
       <c r="B691" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C691">
         <v>4.0999999999999996</v>
@@ -14371,7 +14372,7 @@
         <v>45658</v>
       </c>
       <c r="B692" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C692">
         <v>2.5</v>
@@ -14391,7 +14392,7 @@
         <v>45689</v>
       </c>
       <c r="B693" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C693">
         <v>1.9</v>
@@ -14411,7 +14412,7 @@
         <v>45717</v>
       </c>
       <c r="B694" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C694">
         <v>9.1999999999999993</v>
@@ -14431,7 +14432,7 @@
         <v>43831</v>
       </c>
       <c r="B695" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C695">
         <v>1.8</v>
@@ -14451,7 +14452,7 @@
         <v>43862</v>
       </c>
       <c r="B696" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C696">
         <v>2.2000000000000002</v>
@@ -14471,7 +14472,7 @@
         <v>43891</v>
       </c>
       <c r="B697" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C697">
         <v>6.5</v>
@@ -14491,7 +14492,7 @@
         <v>43922</v>
       </c>
       <c r="B698" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C698">
         <v>9.9</v>
@@ -14511,7 +14512,7 @@
         <v>43952</v>
       </c>
       <c r="B699" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C699">
         <v>15.5</v>
@@ -14531,7 +14532,7 @@
         <v>43983</v>
       </c>
       <c r="B700" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C700">
         <v>20.6</v>
@@ -14551,7 +14552,7 @@
         <v>44013</v>
       </c>
       <c r="B701" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C701">
         <v>22.2</v>
@@ -14571,7 +14572,7 @@
         <v>44044</v>
       </c>
       <c r="B702" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C702">
         <v>25</v>
@@ -14591,7 +14592,7 @@
         <v>44075</v>
       </c>
       <c r="B703" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C703">
         <v>20.6</v>
@@ -14611,7 +14612,7 @@
         <v>44105</v>
       </c>
       <c r="B704" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C704">
         <v>14.4</v>
@@ -14631,7 +14632,7 @@
         <v>44136</v>
       </c>
       <c r="B705" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C705">
         <v>8.1999999999999993</v>
@@ -14651,7 +14652,7 @@
         <v>44166</v>
       </c>
       <c r="B706" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C706">
         <v>0.5</v>
@@ -14671,7 +14672,7 @@
         <v>44197</v>
       </c>
       <c r="B707" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C707">
         <v>-2.1</v>
@@ -14691,7 +14692,7 @@
         <v>44228</v>
       </c>
       <c r="B708" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C708">
         <v>1.8</v>
@@ -14711,7 +14712,7 @@
         <v>44256</v>
       </c>
       <c r="B709" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C709">
         <v>6.9</v>
@@ -14731,7 +14732,7 @@
         <v>44287</v>
       </c>
       <c r="B710" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C710">
         <v>12.2</v>
@@ -14751,7 +14752,7 @@
         <v>44317</v>
       </c>
       <c r="B711" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C711">
         <v>15.5</v>
@@ -14771,7 +14772,7 @@
         <v>44348</v>
       </c>
       <c r="B712" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C712">
         <v>20.3</v>
@@ -14791,7 +14792,7 @@
         <v>44378</v>
       </c>
       <c r="B713" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C713">
         <v>25.8</v>
@@ -14811,7 +14812,7 @@
         <v>44409</v>
       </c>
       <c r="B714" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C714">
         <v>24.5</v>
@@ -14831,7 +14832,7 @@
         <v>44440</v>
       </c>
       <c r="B715" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C715">
         <v>21.8</v>
@@ -14851,7 +14852,7 @@
         <v>44470</v>
       </c>
       <c r="B716" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C716">
         <v>15.5</v>
@@ -14871,7 +14872,7 @@
         <v>44501</v>
       </c>
       <c r="B717" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C717">
         <v>8.6999999999999993</v>
@@ -14891,7 +14892,7 @@
         <v>44531</v>
       </c>
       <c r="B718" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C718">
         <v>1.6</v>
@@ -14911,7 +14912,7 @@
         <v>44562</v>
       </c>
       <c r="B719" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C719">
         <v>-1.8</v>
@@ -14931,7 +14932,7 @@
         <v>44593</v>
       </c>
       <c r="B720" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C720">
         <v>-1.1000000000000001</v>
@@ -14951,7 +14952,7 @@
         <v>44621</v>
       </c>
       <c r="B721" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C721">
         <v>6.1</v>
@@ -14971,7 +14972,7 @@
         <v>44652</v>
       </c>
       <c r="B722" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C722">
         <v>11.9</v>
@@ -14991,7 +14992,7 @@
         <v>44682</v>
       </c>
       <c r="B723" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C723">
         <v>15.9</v>
@@ -15011,7 +15012,7 @@
         <v>44713</v>
       </c>
       <c r="B724" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C724">
         <v>20.8</v>
@@ -15031,7 +15032,7 @@
         <v>44743</v>
       </c>
       <c r="B725" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C725">
         <v>25.1</v>
@@ -15051,7 +15052,7 @@
         <v>44774</v>
       </c>
       <c r="B726" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C726">
         <v>24.3</v>
@@ -15071,7 +15072,7 @@
         <v>44805</v>
       </c>
       <c r="B727" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C727">
         <v>20.9</v>
@@ -15091,7 +15092,7 @@
         <v>44835</v>
       </c>
       <c r="B728" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C728">
         <v>13.7</v>
@@ -15111,7 +15112,7 @@
         <v>44866</v>
       </c>
       <c r="B729" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C729">
         <v>9.5</v>
@@ -15131,7 +15132,7 @@
         <v>44896</v>
       </c>
       <c r="B730" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C730">
         <v>-2.2000000000000002</v>
@@ -15151,7 +15152,7 @@
         <v>44927</v>
       </c>
       <c r="B731" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C731">
         <v>-1.6</v>
@@ -15171,7 +15172,7 @@
         <v>44958</v>
       </c>
       <c r="B732" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C732">
         <v>1.3</v>
@@ -15191,7 +15192,7 @@
         <v>44986</v>
       </c>
       <c r="B733" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C733">
         <v>7.1</v>
@@ -15211,7 +15212,7 @@
         <v>45017</v>
       </c>
       <c r="B734" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C734">
         <v>11.7</v>
@@ -15231,7 +15232,7 @@
         <v>45047</v>
       </c>
       <c r="B735" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C735">
         <v>16.600000000000001</v>
@@ -15251,7 +15252,7 @@
         <v>45078</v>
       </c>
       <c r="B736" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C736">
         <v>20.7</v>
@@ -15271,7 +15272,7 @@
         <v>45108</v>
       </c>
       <c r="B737" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C737">
         <v>24.8</v>
@@ -15291,7 +15292,7 @@
         <v>45139</v>
       </c>
       <c r="B738" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C738">
         <v>25.5</v>
@@ -15311,7 +15312,7 @@
         <v>45170</v>
       </c>
       <c r="B739" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C739">
         <v>22.4</v>
@@ -15331,7 +15332,7 @@
         <v>45200</v>
       </c>
       <c r="B740" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C740">
         <v>15.7</v>
@@ -15351,7 +15352,7 @@
         <v>45231</v>
       </c>
       <c r="B741" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C741">
         <v>6.9</v>
@@ -15371,7 +15372,7 @@
         <v>45261</v>
       </c>
       <c r="B742" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C742">
         <v>1.1000000000000001</v>
@@ -15391,7 +15392,7 @@
         <v>45292</v>
       </c>
       <c r="B743" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C743">
         <v>-0.5</v>
@@ -15411,7 +15412,7 @@
         <v>45323</v>
       </c>
       <c r="B744" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C744">
         <v>2.6</v>
@@ -15431,7 +15432,7 @@
         <v>45352</v>
       </c>
       <c r="B745" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C745">
         <v>5.8</v>
@@ -15451,7 +15452,7 @@
         <v>45383</v>
       </c>
       <c r="B746" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C746">
         <v>13.3</v>
@@ -15471,7 +15472,7 @@
         <v>45413</v>
       </c>
       <c r="B747" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C747">
         <v>16</v>
@@ -15491,7 +15492,7 @@
         <v>45444</v>
       </c>
       <c r="B748" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C748">
         <v>21.5</v>
@@ -15511,7 +15512,7 @@
         <v>45474</v>
       </c>
       <c r="B749" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C749">
         <v>24.6</v>
@@ -15531,7 +15532,7 @@
         <v>45505</v>
       </c>
       <c r="B750" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C750">
         <v>27.4</v>
@@ -15551,7 +15552,7 @@
         <v>45536</v>
       </c>
       <c r="B751" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C751">
         <v>23.9</v>
@@ -15571,7 +15572,7 @@
         <v>45566</v>
       </c>
       <c r="B752" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C752">
         <v>16.100000000000001</v>
@@ -15591,7 +15592,7 @@
         <v>45597</v>
       </c>
       <c r="B753" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C753">
         <v>9.6999999999999993</v>
@@ -15611,7 +15612,7 @@
         <v>45627</v>
       </c>
       <c r="B754" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C754">
         <v>1.1000000000000001</v>
@@ -15631,7 +15632,7 @@
         <v>45658</v>
       </c>
       <c r="B755" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C755">
         <v>-0.6</v>
@@ -15651,7 +15652,7 @@
         <v>45689</v>
       </c>
       <c r="B756" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C756">
         <v>-1.4</v>
@@ -15671,7 +15672,7 @@
         <v>45717</v>
       </c>
       <c r="B757" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C757">
         <v>6</v>
@@ -15691,7 +15692,7 @@
         <v>43831</v>
       </c>
       <c r="B758" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C758">
         <v>4.7</v>
@@ -15711,7 +15712,7 @@
         <v>43862</v>
       </c>
       <c r="B759" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C759">
         <v>5.0999999999999996</v>
@@ -15731,7 +15732,7 @@
         <v>43891</v>
       </c>
       <c r="B760" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C760">
         <v>8.3000000000000007</v>
@@ -15751,7 +15752,7 @@
         <v>43922</v>
       </c>
       <c r="B761" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C761">
         <v>10.8</v>
@@ -15771,7 +15772,7 @@
         <v>43952</v>
       </c>
       <c r="B762" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C762">
         <v>17.3</v>
@@ -15791,7 +15792,7 @@
         <v>43983</v>
       </c>
       <c r="B763" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C763">
         <v>22.1</v>
@@ -15811,7 +15812,7 @@
         <v>44013</v>
       </c>
       <c r="B764" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C764">
         <v>22.7</v>
@@ -15831,7 +15832,7 @@
         <v>44044</v>
       </c>
       <c r="B765" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C765">
         <v>27.2</v>
@@ -15851,7 +15852,7 @@
         <v>44075</v>
       </c>
       <c r="B766" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C766">
         <v>21.3</v>
@@ -15871,7 +15872,7 @@
         <v>44105</v>
       </c>
       <c r="B767" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C767">
         <v>15.5</v>
@@ -15891,7 +15892,7 @@
         <v>44136</v>
       </c>
       <c r="B768" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C768">
         <v>10.9</v>
@@ -15911,7 +15912,7 @@
         <v>44166</v>
       </c>
       <c r="B769" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C769">
         <v>3</v>
@@ -15931,7 +15932,7 @@
         <v>44197</v>
       </c>
       <c r="B770" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C770">
         <v>1.9</v>
@@ -15951,7 +15952,7 @@
         <v>44228</v>
       </c>
       <c r="B771" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C771">
         <v>5.3</v>
@@ -15971,7 +15972,7 @@
         <v>44256</v>
       </c>
       <c r="B772" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C772">
         <v>9.8000000000000007</v>
@@ -15991,7 +15992,7 @@
         <v>44287</v>
       </c>
       <c r="B773" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C773">
         <v>13.7</v>
@@ -16011,7 +16012,7 @@
         <v>44317</v>
       </c>
       <c r="B774" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C774">
         <v>17.5</v>
@@ -16031,7 +16032,7 @@
         <v>44348</v>
       </c>
       <c r="B775" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C775">
         <v>22.2</v>
@@ -16051,7 +16052,7 @@
         <v>44378</v>
       </c>
       <c r="B776" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C776">
         <v>26.3</v>
@@ -16071,7 +16072,7 @@
         <v>44409</v>
       </c>
       <c r="B777" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C777">
         <v>26</v>
@@ -16091,7 +16092,7 @@
         <v>44440</v>
       </c>
       <c r="B778" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C778">
         <v>22.6</v>
@@ -16111,7 +16112,7 @@
         <v>44470</v>
       </c>
       <c r="B779" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C779">
         <v>17</v>
@@ -16131,7 +16132,7 @@
         <v>44501</v>
       </c>
       <c r="B780" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C780">
         <v>10.3</v>
@@ -16151,7 +16152,7 @@
         <v>44531</v>
       </c>
       <c r="B781" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C781">
         <v>4.3</v>
@@ -16171,7 +16172,7 @@
         <v>44562</v>
       </c>
       <c r="B782" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C782">
         <v>1.9</v>
@@ -16191,7 +16192,7 @@
         <v>44593</v>
       </c>
       <c r="B783" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C783">
         <v>2</v>
@@ -16211,7 +16212,7 @@
         <v>44621</v>
       </c>
       <c r="B784" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C784">
         <v>8.6999999999999993</v>
@@ -16231,7 +16232,7 @@
         <v>44652</v>
       </c>
       <c r="B785" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C785">
         <v>13.9</v>
@@ -16251,7 +16252,7 @@
         <v>44682</v>
       </c>
       <c r="B786" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C786">
         <v>17.8</v>
@@ -16271,7 +16272,7 @@
         <v>44713</v>
       </c>
       <c r="B787" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C787">
         <v>22.4</v>
@@ -16291,7 +16292,7 @@
         <v>44743</v>
       </c>
       <c r="B788" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C788">
         <v>26.3</v>
@@ -16311,7 +16312,7 @@
         <v>44774</v>
       </c>
       <c r="B789" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C789">
         <v>26.3</v>
@@ -16331,7 +16332,7 @@
         <v>44805</v>
       </c>
       <c r="B790" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C790">
         <v>22.2</v>
@@ -16351,7 +16352,7 @@
         <v>44835</v>
       </c>
       <c r="B791" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C791">
         <v>15.5</v>
@@ -16371,7 +16372,7 @@
         <v>44866</v>
       </c>
       <c r="B792" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C792">
         <v>11.5</v>
@@ -16391,7 +16392,7 @@
         <v>44896</v>
       </c>
       <c r="B793" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C793">
         <v>2</v>
@@ -16411,7 +16412,7 @@
         <v>44927</v>
       </c>
       <c r="B794" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C794">
         <v>2.1</v>
@@ -16431,7 +16432,7 @@
         <v>44958</v>
       </c>
       <c r="B795" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C795">
         <v>4</v>
@@ -16451,7 +16452,7 @@
         <v>44986</v>
       </c>
       <c r="B796" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C796">
         <v>9.8000000000000007</v>
@@ -16471,7 +16472,7 @@
         <v>45017</v>
       </c>
       <c r="B797" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C797">
         <v>13.3</v>
@@ -16491,7 +16492,7 @@
         <v>45047</v>
       </c>
       <c r="B798" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C798">
         <v>17.7</v>
@@ -16511,7 +16512,7 @@
         <v>45078</v>
       </c>
       <c r="B799" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C799">
         <v>22.1</v>
@@ -16531,7 +16532,7 @@
         <v>45108</v>
       </c>
       <c r="B800" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C800">
         <v>25.4</v>
@@ -16551,7 +16552,7 @@
         <v>45139</v>
       </c>
       <c r="B801" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C801">
         <v>26.9</v>
@@ -16571,7 +16572,7 @@
         <v>45170</v>
       </c>
       <c r="B802" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C802">
         <v>23.7</v>
@@ -16591,7 +16592,7 @@
         <v>45200</v>
       </c>
       <c r="B803" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C803">
         <v>16.5</v>
@@ -16611,7 +16612,7 @@
         <v>45231</v>
       </c>
       <c r="B804" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C804">
         <v>10.199999999999999</v>
@@ -16631,7 +16632,7 @@
         <v>45261</v>
       </c>
       <c r="B805" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C805">
         <v>5.0999999999999996</v>
@@ -16651,7 +16652,7 @@
         <v>45292</v>
       </c>
       <c r="B806" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C806">
         <v>3.4</v>
@@ -16671,7 +16672,7 @@
         <v>45323</v>
       </c>
       <c r="B807" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C807">
         <v>6.1</v>
@@ -16691,7 +16692,7 @@
         <v>45352</v>
       </c>
       <c r="B808" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C808">
         <v>8</v>
@@ -16711,7 +16712,7 @@
         <v>45383</v>
       </c>
       <c r="B809" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C809">
         <v>14.9</v>
@@ -16731,7 +16732,7 @@
         <v>45413</v>
       </c>
       <c r="B810" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C810">
         <v>17.899999999999999</v>
@@ -16751,7 +16752,7 @@
         <v>45444</v>
       </c>
       <c r="B811" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C811">
         <v>22.3</v>
@@ -16771,7 +16772,7 @@
         <v>45474</v>
       </c>
       <c r="B812" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C812">
         <v>26.4</v>
@@ -16791,7 +16792,7 @@
         <v>45505</v>
       </c>
       <c r="B813" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C813">
         <v>28.4</v>
@@ -16811,7 +16812,7 @@
         <v>45536</v>
       </c>
       <c r="B814" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C814">
         <v>26</v>
@@ -16831,7 +16832,7 @@
         <v>45566</v>
       </c>
       <c r="B815" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C815">
         <v>17.899999999999999</v>
@@ -16851,7 +16852,7 @@
         <v>45597</v>
       </c>
       <c r="B816" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C816">
         <v>11.8</v>
@@ -16871,7 +16872,7 @@
         <v>45627</v>
       </c>
       <c r="B817" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C817">
         <v>4.3</v>
@@ -16891,7 +16892,7 @@
         <v>45658</v>
       </c>
       <c r="B818" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C818">
         <v>2</v>
@@ -16911,7 +16912,7 @@
         <v>45689</v>
       </c>
       <c r="B819" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C819">
         <v>1.5</v>
@@ -16931,7 +16932,7 @@
         <v>45717</v>
       </c>
       <c r="B820" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C820">
         <v>8.4</v>
@@ -16951,7 +16952,7 @@
         <v>43831</v>
       </c>
       <c r="B821" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C821">
         <v>2.6</v>
@@ -16971,7 +16972,7 @@
         <v>43862</v>
       </c>
       <c r="B822" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C822">
         <v>3.3</v>
@@ -16991,7 +16992,7 @@
         <v>43891</v>
       </c>
       <c r="B823" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C823">
         <v>7.3</v>
@@ -17011,7 +17012,7 @@
         <v>43922</v>
       </c>
       <c r="B824" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C824">
         <v>9.8000000000000007</v>
@@ -17031,7 +17032,7 @@
         <v>43952</v>
       </c>
       <c r="B825" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C825">
         <v>17.600000000000001</v>
@@ -17051,7 +17052,7 @@
         <v>43983</v>
       </c>
       <c r="B826" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C826">
         <v>22.5</v>
@@ -17071,7 +17072,7 @@
         <v>44013</v>
       </c>
       <c r="B827" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C827">
         <v>22.8</v>
@@ -17091,7 +17092,7 @@
         <v>44044</v>
       </c>
       <c r="B828" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C828">
         <v>26.9</v>
@@ -17111,7 +17112,7 @@
         <v>44075</v>
       </c>
       <c r="B829" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C829">
         <v>20.3</v>
@@ -17131,7 +17132,7 @@
         <v>44105</v>
       </c>
       <c r="B830" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C830">
         <v>13.7</v>
@@ -17151,7 +17152,7 @@
         <v>44136</v>
       </c>
       <c r="B831" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C831">
         <v>8.6</v>
@@ -17171,7 +17172,7 @@
         <v>44166</v>
       </c>
       <c r="B832" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C832">
         <v>0.6</v>
@@ -17191,7 +17192,7 @@
         <v>44197</v>
       </c>
       <c r="B833" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C833">
         <v>-0.6</v>
@@ -17211,7 +17212,7 @@
         <v>44228</v>
       </c>
       <c r="B834" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C834">
         <v>3.5</v>
@@ -17231,7 +17232,7 @@
         <v>44256</v>
       </c>
       <c r="B835" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C835">
         <v>8.5</v>
@@ -17251,7 +17252,7 @@
         <v>44287</v>
       </c>
       <c r="B836" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C836">
         <v>13.3</v>
@@ -17271,7 +17272,7 @@
         <v>44317</v>
       </c>
       <c r="B837" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C837">
         <v>16.8</v>
@@ -17291,7 +17292,7 @@
         <v>44348</v>
       </c>
       <c r="B838" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C838">
         <v>22.2</v>
@@ -17311,7 +17312,7 @@
         <v>44378</v>
       </c>
       <c r="B839" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C839">
         <v>26.2</v>
@@ -17331,7 +17332,7 @@
         <v>44409</v>
       </c>
       <c r="B840" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C840">
         <v>25.1</v>
@@ -17351,7 +17352,7 @@
         <v>44440</v>
       </c>
       <c r="B841" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C841">
         <v>21.9</v>
@@ -17371,7 +17372,7 @@
         <v>44470</v>
       </c>
       <c r="B842" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C842">
         <v>15.2</v>
@@ -17391,7 +17392,7 @@
         <v>44501</v>
       </c>
       <c r="B843" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C843">
         <v>8.3000000000000007</v>
@@ -17411,7 +17412,7 @@
         <v>44531</v>
       </c>
       <c r="B844" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C844">
         <v>2.2000000000000002</v>
@@ -17431,7 +17432,7 @@
         <v>44562</v>
       </c>
       <c r="B845" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C845">
         <v>-0.8</v>
@@ -17451,7 +17452,7 @@
         <v>44593</v>
       </c>
       <c r="B846" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C846">
         <v>-0.3</v>
@@ -17471,7 +17472,7 @@
         <v>44621</v>
       </c>
       <c r="B847" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C847">
         <v>7.5</v>
@@ -17491,7 +17492,7 @@
         <v>44652</v>
       </c>
       <c r="B848" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C848">
         <v>13.4</v>
@@ -17511,7 +17512,7 @@
         <v>44682</v>
       </c>
       <c r="B849" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C849">
         <v>17.5</v>
@@ -17531,7 +17532,7 @@
         <v>44713</v>
       </c>
       <c r="B850" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C850">
         <v>22.8</v>
@@ -17551,7 +17552,7 @@
         <v>44743</v>
       </c>
       <c r="B851" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C851">
         <v>26.1</v>
@@ -17571,7 +17572,7 @@
         <v>44774</v>
       </c>
       <c r="B852" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C852">
         <v>25.6</v>
@@ -17591,7 +17592,7 @@
         <v>44805</v>
       </c>
       <c r="B853" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C853">
         <v>21.4</v>
@@ -17611,7 +17612,7 @@
         <v>44835</v>
       </c>
       <c r="B854" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C854">
         <v>13.8</v>
@@ -17631,7 +17632,7 @@
         <v>44866</v>
       </c>
       <c r="B855" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C855">
         <v>9.5</v>
@@ -17651,7 +17652,7 @@
         <v>44896</v>
       </c>
       <c r="B856" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C856">
         <v>-1.2</v>
@@ -17671,7 +17672,7 @@
         <v>44927</v>
       </c>
       <c r="B857" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C857">
         <v>-0.3</v>
@@ -17691,7 +17692,7 @@
         <v>44958</v>
       </c>
       <c r="B858" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C858">
         <v>1.9</v>
@@ -17711,7 +17712,7 @@
         <v>44986</v>
       </c>
       <c r="B859" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C859">
         <v>8.9</v>
@@ -17731,7 +17732,7 @@
         <v>45017</v>
       </c>
       <c r="B860" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C860">
         <v>13</v>
@@ -17751,7 +17752,7 @@
         <v>45047</v>
       </c>
       <c r="B861" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C861">
         <v>18.2</v>
@@ -17771,7 +17772,7 @@
         <v>45078</v>
       </c>
       <c r="B862" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C862">
         <v>22.4</v>
@@ -17791,7 +17792,7 @@
         <v>45108</v>
       </c>
       <c r="B863" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C863">
         <v>25.8</v>
@@ -17811,7 +17812,7 @@
         <v>45139</v>
       </c>
       <c r="B864" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C864">
         <v>26.7</v>
@@ -17831,7 +17832,7 @@
         <v>45170</v>
       </c>
       <c r="B865" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C865">
         <v>22.8</v>
@@ -17851,7 +17852,7 @@
         <v>45200</v>
       </c>
       <c r="B866" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C866">
         <v>14.8</v>
@@ -17871,7 +17872,7 @@
         <v>45231</v>
       </c>
       <c r="B867" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C867">
         <v>8.1999999999999993</v>
@@ -17891,7 +17892,7 @@
         <v>45261</v>
       </c>
       <c r="B868" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C868">
         <v>3.1</v>
@@ -17911,7 +17912,7 @@
         <v>45292</v>
       </c>
       <c r="B869" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C869">
         <v>1.3</v>
@@ -17931,7 +17932,7 @@
         <v>45323</v>
       </c>
       <c r="B870" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C870">
         <v>4.7</v>
@@ -17951,7 +17952,7 @@
         <v>45352</v>
       </c>
       <c r="B871" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C871">
         <v>6.8</v>
@@ -17971,7 +17972,7 @@
         <v>45383</v>
       </c>
       <c r="B872" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C872">
         <v>14.9</v>
@@ -17991,7 +17992,7 @@
         <v>45413</v>
       </c>
       <c r="B873" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C873">
         <v>17.7</v>
@@ -18011,7 +18012,7 @@
         <v>45444</v>
       </c>
       <c r="B874" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C874">
         <v>22.6</v>
@@ -18031,7 +18032,7 @@
         <v>45474</v>
       </c>
       <c r="B875" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C875">
         <v>26.8</v>
@@ -18051,7 +18052,7 @@
         <v>45505</v>
       </c>
       <c r="B876" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C876">
         <v>28.1</v>
@@ -18071,7 +18072,7 @@
         <v>45536</v>
       </c>
       <c r="B877" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C877">
         <v>25.5</v>
@@ -18091,7 +18092,7 @@
         <v>45566</v>
       </c>
       <c r="B878" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C878">
         <v>16.2</v>
@@ -18111,7 +18112,7 @@
         <v>45597</v>
       </c>
       <c r="B879" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C879">
         <v>9.6999999999999993</v>
@@ -18131,7 +18132,7 @@
         <v>45627</v>
       </c>
       <c r="B880" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C880">
         <v>2</v>
@@ -18151,7 +18152,7 @@
         <v>45658</v>
       </c>
       <c r="B881" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C881">
         <v>-0.1</v>
@@ -18171,7 +18172,7 @@
         <v>45689</v>
       </c>
       <c r="B882" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C882">
         <v>-0.6</v>
@@ -18191,7 +18192,7 @@
         <v>45717</v>
       </c>
       <c r="B883" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C883">
         <v>7.6</v>
@@ -18211,7 +18212,7 @@
         <v>43831</v>
       </c>
       <c r="B884" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C884">
         <v>8.6999999999999993</v>
@@ -18231,7 +18232,7 @@
         <v>43862</v>
       </c>
       <c r="B885" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C885">
         <v>9</v>
@@ -18251,7 +18252,7 @@
         <v>43891</v>
       </c>
       <c r="B886" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C886">
         <v>11.3</v>
@@ -18271,7 +18272,7 @@
         <v>43922</v>
       </c>
       <c r="B887" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C887">
         <v>13</v>
@@ -18291,7 +18292,7 @@
         <v>43952</v>
       </c>
       <c r="B888" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C888">
         <v>18.3</v>
@@ -18311,7 +18312,7 @@
         <v>43983</v>
       </c>
       <c r="B889" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C889">
         <v>22</v>
@@ -18331,7 +18332,7 @@
         <v>44013</v>
       </c>
       <c r="B890" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C890">
         <v>23.6</v>
@@ -18351,7 +18352,7 @@
         <v>44044</v>
       </c>
       <c r="B891" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C891">
         <v>28.1</v>
@@ -18371,7 +18372,7 @@
         <v>44075</v>
       </c>
       <c r="B892" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C892">
         <v>22.5</v>
@@ -18391,7 +18392,7 @@
         <v>44105</v>
       </c>
       <c r="B893" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C893">
         <v>18.2</v>
@@ -18411,7 +18412,7 @@
         <v>44136</v>
       </c>
       <c r="B894" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C894">
         <v>14.2</v>
@@ -18431,7 +18432,7 @@
         <v>44166</v>
       </c>
       <c r="B895" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C895">
         <v>7.6</v>
@@ -18451,7 +18452,7 @@
         <v>44197</v>
       </c>
       <c r="B896" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C896">
         <v>6.7</v>
@@ -18471,7 +18472,7 @@
         <v>44228</v>
       </c>
       <c r="B897" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C897">
         <v>9.3000000000000007</v>
@@ -18491,7 +18492,7 @@
         <v>44256</v>
       </c>
       <c r="B898" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C898">
         <v>12.5</v>
@@ -18511,7 +18512,7 @@
         <v>44287</v>
       </c>
       <c r="B899" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C899">
         <v>15.4</v>
@@ -18531,7 +18532,7 @@
         <v>44317</v>
       </c>
       <c r="B900" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C900">
         <v>18.600000000000001</v>
@@ -18551,7 +18552,7 @@
         <v>44348</v>
       </c>
       <c r="B901" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C901">
         <v>22.8</v>
@@ -18571,7 +18572,7 @@
         <v>44378</v>
       </c>
       <c r="B902" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C902">
         <v>26.9</v>
@@ -18591,7 +18592,7 @@
         <v>44409</v>
       </c>
       <c r="B903" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C903">
         <v>26.7</v>
@@ -18611,7 +18612,7 @@
         <v>44440</v>
       </c>
       <c r="B904" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C904">
         <v>24.5</v>
@@ -18631,7 +18632,7 @@
         <v>44470</v>
       </c>
       <c r="B905" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C905">
         <v>20</v>
@@ -18651,7 +18652,7 @@
         <v>44501</v>
       </c>
       <c r="B906" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C906">
         <v>13.8</v>
@@ -18671,7 +18672,7 @@
         <v>44531</v>
       </c>
       <c r="B907" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C907">
         <v>8.8000000000000007</v>
@@ -18691,7 +18692,7 @@
         <v>44562</v>
       </c>
       <c r="B908" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C908">
         <v>6.3</v>
@@ -18711,7 +18712,7 @@
         <v>44593</v>
       </c>
       <c r="B909" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C909">
         <v>5.4</v>
@@ -18731,7 +18732,7 @@
         <v>44621</v>
       </c>
       <c r="B910" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C910">
         <v>11.5</v>
@@ -18751,7 +18752,7 @@
         <v>44652</v>
       </c>
       <c r="B911" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C911">
         <v>15.4</v>
@@ -18771,7 +18772,7 @@
         <v>44682</v>
       </c>
       <c r="B912" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C912">
         <v>18.899999999999999</v>
@@ -18791,7 +18792,7 @@
         <v>44713</v>
       </c>
       <c r="B913" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C913">
         <v>22.7</v>
@@ -18811,7 +18812,7 @@
         <v>44743</v>
       </c>
       <c r="B914" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C914">
         <v>27.3</v>
@@ -18831,7 +18832,7 @@
         <v>44774</v>
       </c>
       <c r="B915" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C915">
         <v>28.1</v>
@@ -18851,7 +18852,7 @@
         <v>44805</v>
       </c>
       <c r="B916" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C916">
         <v>24</v>
@@ -18871,7 +18872,7 @@
         <v>44835</v>
       </c>
       <c r="B917" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C917">
         <v>18.3</v>
@@ -18891,7 +18892,7 @@
         <v>44866</v>
       </c>
       <c r="B918" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C918">
         <v>15.5</v>
@@ -18911,7 +18912,7 @@
         <v>44896</v>
       </c>
       <c r="B919" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C919">
         <v>6.8</v>
@@ -18931,7 +18932,7 @@
         <v>44927</v>
       </c>
       <c r="B920" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C920">
         <v>6.7</v>
@@ -18951,7 +18952,7 @@
         <v>44958</v>
       </c>
       <c r="B921" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C921">
         <v>8</v>
@@ -18971,7 +18972,7 @@
         <v>44986</v>
       </c>
       <c r="B922" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C922">
         <v>12.4</v>
@@ -18991,7 +18992,7 @@
         <v>45017</v>
       </c>
       <c r="B923" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C923">
         <v>15.2</v>
@@ -19011,7 +19012,7 @@
         <v>45047</v>
       </c>
       <c r="B924" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C924">
         <v>18.5</v>
@@ -19031,7 +19032,7 @@
         <v>45078</v>
       </c>
       <c r="B925" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C925">
         <v>22.4</v>
@@ -19051,7 +19052,7 @@
         <v>45108</v>
       </c>
       <c r="B926" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C926">
         <v>26.6</v>
@@ -19071,7 +19072,7 @@
         <v>45139</v>
       </c>
       <c r="B927" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C927">
         <v>28</v>
@@ -19091,7 +19092,7 @@
         <v>45170</v>
       </c>
       <c r="B928" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C928">
         <v>25.4</v>
@@ -19111,7 +19112,7 @@
         <v>45200</v>
       </c>
       <c r="B929" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C929">
         <v>19.2</v>
@@ -19131,7 +19132,7 @@
         <v>45231</v>
       </c>
       <c r="B930" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C930">
         <v>13.7</v>
@@ -19151,7 +19152,7 @@
         <v>45261</v>
       </c>
       <c r="B931" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C931">
         <v>9.4</v>
@@ -19171,7 +19172,7 @@
         <v>45292</v>
       </c>
       <c r="B932" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C932">
         <v>7.8</v>
@@ -19191,7 +19192,7 @@
         <v>45323</v>
       </c>
       <c r="B933" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C933">
         <v>9.6999999999999993</v>
@@ -19211,7 +19212,7 @@
         <v>45352</v>
       </c>
       <c r="B934" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C934">
         <v>10.7</v>
@@ -19231,7 +19232,7 @@
         <v>45383</v>
       </c>
       <c r="B935" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C935">
         <v>16.2</v>
@@ -19251,7 +19252,7 @@
         <v>45413</v>
       </c>
       <c r="B936" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C936">
         <v>18.7</v>
@@ -19271,7 +19272,7 @@
         <v>45444</v>
       </c>
       <c r="B937" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C937">
         <v>22.3</v>
@@ -19291,7 +19292,7 @@
         <v>45474</v>
       </c>
       <c r="B938" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C938">
         <v>27.4</v>
@@ -19311,7 +19312,7 @@
         <v>45505</v>
       </c>
       <c r="B939" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C939">
         <v>29.3</v>
@@ -19331,7 +19332,7 @@
         <v>45536</v>
       </c>
       <c r="B940" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C940">
         <v>27.4</v>
@@ -19351,7 +19352,7 @@
         <v>45566</v>
       </c>
       <c r="B941" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C941">
         <v>20.9</v>
@@ -19371,7 +19372,7 @@
         <v>45597</v>
       </c>
       <c r="B942" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C942">
         <v>15.1</v>
@@ -19391,7 +19392,7 @@
         <v>45627</v>
       </c>
       <c r="B943" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C943">
         <v>8.4</v>
@@ -19411,7 +19412,7 @@
         <v>45658</v>
       </c>
       <c r="B944" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C944">
         <v>6.5</v>
@@ -19431,7 +19432,7 @@
         <v>45689</v>
       </c>
       <c r="B945" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C945">
         <v>5.2</v>
@@ -19451,7 +19452,7 @@
         <v>45717</v>
       </c>
       <c r="B946" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C946">
         <v>11</v>
@@ -19471,7 +19472,7 @@
         <v>43831</v>
       </c>
       <c r="B947" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C947">
         <v>1.9</v>
@@ -19491,7 +19492,7 @@
         <v>43862</v>
       </c>
       <c r="B948" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C948">
         <v>2.6</v>
@@ -19511,7 +19512,7 @@
         <v>43891</v>
       </c>
       <c r="B949" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C949">
         <v>6.9</v>
@@ -19531,7 +19532,7 @@
         <v>43922</v>
       </c>
       <c r="B950" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C950">
         <v>10</v>
@@ -19551,7 +19552,7 @@
         <v>43952</v>
       </c>
       <c r="B951" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C951">
         <v>17.399999999999999</v>
@@ -19571,7 +19572,7 @@
         <v>43983</v>
       </c>
       <c r="B952" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C952">
         <v>22.4</v>
@@ -19591,7 +19592,7 @@
         <v>44013</v>
       </c>
       <c r="B953" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C953">
         <v>23</v>
@@ -19611,7 +19612,7 @@
         <v>44044</v>
       </c>
       <c r="B954" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C954">
         <v>26.5</v>
@@ -19631,7 +19632,7 @@
         <v>44075</v>
       </c>
       <c r="B955" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C955">
         <v>20.3</v>
@@ -19651,7 +19652,7 @@
         <v>44105</v>
       </c>
       <c r="B956" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C956">
         <v>13.1</v>
@@ -19671,7 +19672,7 @@
         <v>44136</v>
       </c>
       <c r="B957" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C957">
         <v>7.9</v>
@@ -19691,7 +19692,7 @@
         <v>44166</v>
       </c>
       <c r="B958" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C958">
         <v>0</v>
@@ -19711,7 +19712,7 @@
         <v>44197</v>
       </c>
       <c r="B959" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C959">
         <v>-1.8</v>
@@ -19731,7 +19732,7 @@
         <v>44228</v>
       </c>
       <c r="B960" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C960">
         <v>2.8</v>
@@ -19751,7 +19752,7 @@
         <v>44256</v>
       </c>
       <c r="B961" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C961">
         <v>8</v>
@@ -19771,7 +19772,7 @@
         <v>44287</v>
       </c>
       <c r="B962" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C962">
         <v>13.1</v>
@@ -19791,7 +19792,7 @@
         <v>44317</v>
       </c>
       <c r="B963" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C963">
         <v>16.3</v>
@@ -19811,7 +19812,7 @@
         <v>44348</v>
       </c>
       <c r="B964" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C964">
         <v>22</v>
@@ -19831,7 +19832,7 @@
         <v>44378</v>
       </c>
       <c r="B965" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C965">
         <v>26.4</v>
@@ -19851,7 +19852,7 @@
         <v>44409</v>
       </c>
       <c r="B966" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C966">
         <v>24.9</v>
@@ -19871,7 +19872,7 @@
         <v>44440</v>
       </c>
       <c r="B967" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C967">
         <v>21.7</v>
@@ -19891,7 +19892,7 @@
         <v>44470</v>
       </c>
       <c r="B968" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C968">
         <v>14.8</v>
@@ -19911,7 +19912,7 @@
         <v>44501</v>
       </c>
       <c r="B969" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C969">
         <v>8</v>
@@ -19931,7 +19932,7 @@
         <v>44531</v>
       </c>
       <c r="B970" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C970">
         <v>1.4</v>
@@ -19951,7 +19952,7 @@
         <v>44562</v>
       </c>
       <c r="B971" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C971">
         <v>-1.8</v>
@@ -19971,7 +19972,7 @@
         <v>44593</v>
       </c>
       <c r="B972" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C972">
         <v>-0.7</v>
@@ -19991,7 +19992,7 @@
         <v>44621</v>
       </c>
       <c r="B973" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C973">
         <v>6.9</v>
@@ -20011,7 +20012,7 @@
         <v>44652</v>
       </c>
       <c r="B974" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C974">
         <v>13</v>
@@ -20031,7 +20032,7 @@
         <v>44682</v>
       </c>
       <c r="B975" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C975">
         <v>17.399999999999999</v>
@@ -20051,7 +20052,7 @@
         <v>44713</v>
       </c>
       <c r="B976" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C976">
         <v>22.7</v>
@@ -20071,7 +20072,7 @@
         <v>44743</v>
       </c>
       <c r="B977" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C977">
         <v>26.1</v>
@@ -20091,7 +20092,7 @@
         <v>44774</v>
       </c>
       <c r="B978" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C978">
         <v>25.1</v>
@@ -20111,7 +20112,7 @@
         <v>44805</v>
       </c>
       <c r="B979" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C979">
         <v>21.1</v>
@@ -20131,7 +20132,7 @@
         <v>44835</v>
       </c>
       <c r="B980" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C980">
         <v>13.5</v>
@@ -20151,7 +20152,7 @@
         <v>44866</v>
       </c>
       <c r="B981" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C981">
         <v>8.9</v>
@@ -20171,7 +20172,7 @@
         <v>44896</v>
       </c>
       <c r="B982" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C982">
         <v>-2.2000000000000002</v>
@@ -20191,7 +20192,7 @@
         <v>44927</v>
       </c>
       <c r="B983" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C983">
         <v>-1.2</v>
@@ -20211,7 +20212,7 @@
         <v>44958</v>
       </c>
       <c r="B984" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C984">
         <v>1.5</v>
@@ -20231,7 +20232,7 @@
         <v>44986</v>
       </c>
       <c r="B985" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C985">
         <v>8.4</v>
@@ -20251,7 +20252,7 @@
         <v>45017</v>
       </c>
       <c r="B986" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C986">
         <v>12.9</v>
@@ -20271,7 +20272,7 @@
         <v>45047</v>
       </c>
       <c r="B987" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C987">
         <v>18.100000000000001</v>
@@ -20291,7 +20292,7 @@
         <v>45078</v>
       </c>
       <c r="B988" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C988">
         <v>22.5</v>
@@ -20311,7 +20312,7 @@
         <v>45108</v>
       </c>
       <c r="B989" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C989">
         <v>25.7</v>
@@ -20331,7 +20332,7 @@
         <v>45139</v>
       </c>
       <c r="B990" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C990">
         <v>26.6</v>
@@ -20351,7 +20352,7 @@
         <v>45170</v>
       </c>
       <c r="B991" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C991">
         <v>22.6</v>
@@ -20371,7 +20372,7 @@
         <v>45200</v>
       </c>
       <c r="B992" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C992">
         <v>14.6</v>
@@ -20391,7 +20392,7 @@
         <v>45231</v>
       </c>
       <c r="B993" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C993">
         <v>7.6</v>
@@ -20411,7 +20412,7 @@
         <v>45261</v>
       </c>
       <c r="B994" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C994">
         <v>2.2000000000000002</v>
@@ -20431,7 +20432,7 @@
         <v>45292</v>
       </c>
       <c r="B995" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C995">
         <v>0.2</v>
@@ -20451,7 +20452,7 @@
         <v>45323</v>
       </c>
       <c r="B996" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C996">
         <v>3.7</v>
@@ -20471,7 +20472,7 @@
         <v>45352</v>
       </c>
       <c r="B997" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C997">
         <v>6.5</v>
@@ -20491,7 +20492,7 @@
         <v>45383</v>
       </c>
       <c r="B998" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C998">
         <v>14.8</v>
@@ -20511,7 +20512,7 @@
         <v>45413</v>
       </c>
       <c r="B999" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C999">
         <v>17.2</v>
@@ -20531,7 +20532,7 @@
         <v>45444</v>
       </c>
       <c r="B1000" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1000">
         <v>22.7</v>
@@ -20551,7 +20552,7 @@
         <v>45474</v>
       </c>
       <c r="B1001" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1001">
         <v>26.3</v>
@@ -20571,7 +20572,7 @@
         <v>45505</v>
       </c>
       <c r="B1002" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1002">
         <v>28.2</v>
@@ -20591,7 +20592,7 @@
         <v>45536</v>
       </c>
       <c r="B1003" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1003">
         <v>25.2</v>
@@ -20611,7 +20612,7 @@
         <v>45566</v>
       </c>
       <c r="B1004" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1004">
         <v>15.8</v>
@@ -20631,7 +20632,7 @@
         <v>45597</v>
       </c>
       <c r="B1005" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1005">
         <v>9.1999999999999993</v>
@@ -20651,7 +20652,7 @@
         <v>45627</v>
       </c>
       <c r="B1006" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1006">
         <v>1.4</v>
@@ -20671,7 +20672,7 @@
         <v>45658</v>
       </c>
       <c r="B1007" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1007">
         <v>-0.6</v>
@@ -20691,7 +20692,7 @@
         <v>45689</v>
       </c>
       <c r="B1008" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1008">
         <v>-1</v>
@@ -20711,7 +20712,7 @@
         <v>45717</v>
       </c>
       <c r="B1009" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1009">
         <v>7.1</v>
@@ -20731,7 +20732,7 @@
         <v>43831</v>
       </c>
       <c r="B1010" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1010">
         <v>1</v>
@@ -20751,7 +20752,7 @@
         <v>43862</v>
       </c>
       <c r="B1011" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1011">
         <v>2</v>
@@ -20771,7 +20772,7 @@
         <v>43891</v>
       </c>
       <c r="B1012" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1012">
         <v>7</v>
@@ -20791,7 +20792,7 @@
         <v>43922</v>
       </c>
       <c r="B1013" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1013">
         <v>10.199999999999999</v>
@@ -20811,7 +20812,7 @@
         <v>43952</v>
       </c>
       <c r="B1014" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1014">
         <v>17.600000000000001</v>
@@ -20831,7 +20832,7 @@
         <v>43983</v>
       </c>
       <c r="B1015" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1015">
         <v>23</v>
@@ -20851,7 +20852,7 @@
         <v>44013</v>
       </c>
       <c r="B1016" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1016">
         <v>22.7</v>
@@ -20871,7 +20872,7 @@
         <v>44044</v>
       </c>
       <c r="B1017" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1017">
         <v>25.9</v>
@@ -20891,7 +20892,7 @@
         <v>44075</v>
       </c>
       <c r="B1018" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1018">
         <v>19.3</v>
@@ -20911,7 +20912,7 @@
         <v>44105</v>
       </c>
       <c r="B1019" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1019">
         <v>12.1</v>
@@ -20931,7 +20932,7 @@
         <v>44136</v>
       </c>
       <c r="B1020" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1020">
         <v>6.9</v>
@@ -20951,7 +20952,7 @@
         <v>44166</v>
       </c>
       <c r="B1021" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1021">
         <v>-1.8</v>
@@ -20971,7 +20972,7 @@
         <v>44197</v>
       </c>
       <c r="B1022" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1022">
         <v>-3</v>
@@ -20991,7 +20992,7 @@
         <v>44228</v>
       </c>
       <c r="B1023" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1023">
         <v>2.1</v>
@@ -21011,7 +21012,7 @@
         <v>44256</v>
       </c>
       <c r="B1024" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1024">
         <v>8</v>
@@ -21031,7 +21032,7 @@
         <v>44287</v>
       </c>
       <c r="B1025" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1025">
         <v>13</v>
@@ -21051,7 +21052,7 @@
         <v>44317</v>
       </c>
       <c r="B1026" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1026">
         <v>16</v>
@@ -21071,7 +21072,7 @@
         <v>44348</v>
       </c>
       <c r="B1027" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1027">
         <v>21.8</v>
@@ -21091,7 +21092,7 @@
         <v>44378</v>
       </c>
       <c r="B1028" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1028">
         <v>26</v>
@@ -21111,7 +21112,7 @@
         <v>44409</v>
       </c>
       <c r="B1029" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1029">
         <v>24.2</v>
@@ -21131,7 +21132,7 @@
         <v>44440</v>
       </c>
       <c r="B1030" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1030">
         <v>20.7</v>
@@ -21151,7 +21152,7 @@
         <v>44470</v>
       </c>
       <c r="B1031" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1031">
         <v>13.8</v>
@@ -21171,7 +21172,7 @@
         <v>44501</v>
       </c>
       <c r="B1032" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1032">
         <v>6.8</v>
@@ -21191,7 +21192,7 @@
         <v>44531</v>
       </c>
       <c r="B1033" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1033">
         <v>0.1</v>
@@ -21211,7 +21212,7 @@
         <v>44562</v>
       </c>
       <c r="B1034" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1034">
         <v>-2.7</v>
@@ -21231,7 +21232,7 @@
         <v>44593</v>
       </c>
       <c r="B1035" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1035">
         <v>-1.5</v>
@@ -21251,7 +21252,7 @@
         <v>44621</v>
       </c>
       <c r="B1036" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1036">
         <v>6.8</v>
@@ -21271,7 +21272,7 @@
         <v>44652</v>
       </c>
       <c r="B1037" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1037">
         <v>13.4</v>
@@ -21291,7 +21292,7 @@
         <v>44682</v>
       </c>
       <c r="B1038" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1038">
         <v>17.8</v>
@@ -21311,7 +21312,7 @@
         <v>44713</v>
       </c>
       <c r="B1039" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1039">
         <v>22.6</v>
@@ -21331,7 +21332,7 @@
         <v>44743</v>
       </c>
       <c r="B1040" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1040">
         <v>25.8</v>
@@ -21351,7 +21352,7 @@
         <v>44774</v>
       </c>
       <c r="B1041" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1041">
         <v>24.7</v>
@@ -21371,7 +21372,7 @@
         <v>44805</v>
       </c>
       <c r="B1042" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1042">
         <v>20.3</v>
@@ -21391,7 +21392,7 @@
         <v>44835</v>
       </c>
       <c r="B1043" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1043">
         <v>12.8</v>
@@ -21411,7 +21412,7 @@
         <v>44866</v>
       </c>
       <c r="B1044" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1044">
         <v>7.9</v>
@@ -21431,7 +21432,7 @@
         <v>44896</v>
       </c>
       <c r="B1045" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1045">
         <v>-3.9</v>
@@ -21451,7 +21452,7 @@
         <v>44927</v>
       </c>
       <c r="B1046" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1046">
         <v>-2.5</v>
@@ -21471,7 +21472,7 @@
         <v>44958</v>
       </c>
       <c r="B1047" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1047">
         <v>1.2</v>
@@ -21491,7 +21492,7 @@
         <v>44986</v>
       </c>
       <c r="B1048" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1048">
         <v>8.8000000000000007</v>
@@ -21511,7 +21512,7 @@
         <v>45017</v>
       </c>
       <c r="B1049" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1049">
         <v>12.8</v>
@@ -21531,7 +21532,7 @@
         <v>45047</v>
       </c>
       <c r="B1050" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1050">
         <v>18.100000000000001</v>
@@ -21551,7 +21552,7 @@
         <v>45078</v>
       </c>
       <c r="B1051" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1051">
         <v>22.7</v>
@@ -21571,7 +21572,7 @@
         <v>45108</v>
       </c>
       <c r="B1052" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1052">
         <v>25.4</v>
@@ -21591,7 +21592,7 @@
         <v>45139</v>
       </c>
       <c r="B1053" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1053">
         <v>26.2</v>
@@ -21611,7 +21612,7 @@
         <v>45170</v>
       </c>
       <c r="B1054" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1054">
         <v>22</v>
@@ -21631,7 +21632,7 @@
         <v>45200</v>
       </c>
       <c r="B1055" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1055">
         <v>13.4</v>
@@ -21651,7 +21652,7 @@
         <v>45231</v>
       </c>
       <c r="B1056" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1056">
         <v>6.4</v>
@@ -21671,7 +21672,7 @@
         <v>45261</v>
       </c>
       <c r="B1057" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1057">
         <v>0.7</v>
@@ -21691,7 +21692,7 @@
         <v>45292</v>
       </c>
       <c r="B1058" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1058">
         <v>-0.8</v>
@@ -21711,7 +21712,7 @@
         <v>45323</v>
       </c>
       <c r="B1059" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1059">
         <v>3.1</v>
@@ -21731,7 +21732,7 @@
         <v>45352</v>
       </c>
       <c r="B1060" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1060">
         <v>6.2</v>
@@ -21751,7 +21752,7 @@
         <v>45383</v>
       </c>
       <c r="B1061" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1061">
         <v>15.1</v>
@@ -21771,7 +21772,7 @@
         <v>45413</v>
       </c>
       <c r="B1062" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1062">
         <v>17.399999999999999</v>
@@ -21791,7 +21792,7 @@
         <v>45444</v>
       </c>
       <c r="B1063" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1063">
         <v>22.8</v>
@@ -21811,7 +21812,7 @@
         <v>45474</v>
       </c>
       <c r="B1064" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1064">
         <v>25.9</v>
@@ -21831,7 +21832,7 @@
         <v>45505</v>
       </c>
       <c r="B1065" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1065">
         <v>27.5</v>
@@ -21851,7 +21852,7 @@
         <v>45536</v>
       </c>
       <c r="B1066" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1066">
         <v>24.1</v>
@@ -21871,7 +21872,7 @@
         <v>45566</v>
       </c>
       <c r="B1067" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1067">
         <v>14.9</v>
@@ -21891,7 +21892,7 @@
         <v>45597</v>
       </c>
       <c r="B1068" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1068">
         <v>8.5</v>
@@ -21911,7 +21912,7 @@
         <v>45627</v>
       </c>
       <c r="B1069" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1069">
         <v>0.2</v>
@@ -21931,7 +21932,7 @@
         <v>45658</v>
       </c>
       <c r="B1070" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1070">
         <v>-1.6</v>
@@ -21951,7 +21952,7 @@
         <v>45689</v>
       </c>
       <c r="B1071" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1071">
         <v>-1.9</v>
@@ -21971,7 +21972,7 @@
         <v>45717</v>
       </c>
       <c r="B1072" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1072">
         <v>7.2</v>
@@ -21989,8 +21990,9 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
